--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2748,7 +2748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>298</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>307</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>330</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>338</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>339</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>351</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>386</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>395</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>432</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>441</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>449</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>467</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>475</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>485</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>493</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>528</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>535</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>552</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>561</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>665</v>
       </c>
@@ -15868,12 +15868,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO113">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
